--- a/research/sex-chromosome-project/Data/Raw/Sex_chromosome_genome_size_data.xlsx
+++ b/research/sex-chromosome-project/Data/Raw/Sex_chromosome_genome_size_data.xlsx
@@ -18982,7 +18982,10 @@
       <c r="G268" s="4">
         <v>36.32</v>
       </c>
-      <c r="H268" s="4"/>
+      <c r="H268" s="4">
+        <f>LN(G268/F268)</f>
+        <v>-0.1561939025</v>
+      </c>
       <c r="I268" s="4">
         <v>84.0</v>
       </c>
@@ -19152,7 +19155,10 @@
       <c r="G271" s="4">
         <v>51.2</v>
       </c>
-      <c r="H271" s="4"/>
+      <c r="H271" s="4">
+        <f>LN(G271/F271)</f>
+        <v>0.4953214372</v>
+      </c>
       <c r="I271" s="4">
         <v>50.0</v>
       </c>
@@ -19994,7 +20000,7 @@
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
+      <c r="H287" s="4"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
@@ -20046,7 +20052,7 @@
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
+      <c r="H288" s="4"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
@@ -20098,7 +20104,7 @@
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
+      <c r="H289" s="4"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
@@ -20150,7 +20156,7 @@
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
+      <c r="H290" s="4"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
@@ -20206,7 +20212,10 @@
       <c r="G291" s="10">
         <v>78.0</v>
       </c>
-      <c r="H291" s="3"/>
+      <c r="H291" s="4">
+        <f>LN(G291/F291)</f>
+        <v>0.2557197217</v>
+      </c>
       <c r="I291" s="10">
         <v>50.0</v>
       </c>
@@ -20268,7 +20277,7 @@
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
+      <c r="H292" s="4"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
@@ -20320,7 +20329,7 @@
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
+      <c r="H293" s="4"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
@@ -20372,7 +20381,7 @@
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
+      <c r="H294" s="4"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
@@ -20424,7 +20433,7 @@
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
+      <c r="H295" s="4"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
@@ -20476,7 +20485,7 @@
       </c>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
+      <c r="H296" s="4"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
@@ -20528,7 +20537,7 @@
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
+      <c r="H297" s="4"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
@@ -20580,7 +20589,7 @@
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
+      <c r="H298" s="4"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
@@ -20636,7 +20645,10 @@
       <c r="G299" s="10">
         <v>62.28</v>
       </c>
-      <c r="H299" s="3"/>
+      <c r="H299" s="4">
+        <f>LN(G299/F299)</f>
+        <v>0.1653185681</v>
+      </c>
       <c r="I299" s="10">
         <v>82.0</v>
       </c>
@@ -20698,7 +20710,7 @@
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
+      <c r="H300" s="4"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
@@ -20750,7 +20762,7 @@
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
+      <c r="H301" s="4"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
@@ -20802,7 +20814,7 @@
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
+      <c r="H302" s="4"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
@@ -20854,7 +20866,7 @@
       </c>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
+      <c r="H303" s="4"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
@@ -20906,7 +20918,7 @@
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
+      <c r="H304" s="4"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
@@ -20958,7 +20970,7 @@
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
+      <c r="H305" s="4"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
@@ -21010,7 +21022,7 @@
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
+      <c r="H306" s="4"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
@@ -21062,7 +21074,7 @@
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
+      <c r="H307" s="4"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
@@ -21114,7 +21126,7 @@
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
+      <c r="H308" s="4"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
@@ -21166,7 +21178,7 @@
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
+      <c r="H309" s="4"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
@@ -21218,7 +21230,7 @@
       </c>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
+      <c r="H310" s="4"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
@@ -21270,7 +21282,7 @@
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
+      <c r="H311" s="4"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
@@ -21322,7 +21334,7 @@
       </c>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
+      <c r="H312" s="4"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
@@ -21374,7 +21386,7 @@
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
+      <c r="H313" s="4"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
@@ -21426,7 +21438,7 @@
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
+      <c r="H314" s="4"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
@@ -21478,7 +21490,7 @@
       </c>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
+      <c r="H315" s="4"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
@@ -21530,7 +21542,7 @@
       </c>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
+      <c r="H316" s="4"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
@@ -21582,7 +21594,7 @@
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
+      <c r="H317" s="4"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
@@ -21634,7 +21646,7 @@
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
+      <c r="H318" s="4"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
@@ -21686,7 +21698,7 @@
       </c>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
+      <c r="H319" s="4"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
@@ -21738,7 +21750,7 @@
       </c>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
+      <c r="H320" s="4"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
@@ -21790,7 +21802,7 @@
       </c>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
+      <c r="H321" s="4"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
@@ -21842,7 +21854,7 @@
       </c>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
+      <c r="H322" s="4"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
@@ -21894,7 +21906,7 @@
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
+      <c r="H323" s="4"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
@@ -21946,7 +21958,7 @@
       </c>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
+      <c r="H324" s="4"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
@@ -21998,7 +22010,7 @@
       </c>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
+      <c r="H325" s="4"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
@@ -22050,7 +22062,7 @@
       </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
+      <c r="H326" s="4"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
@@ -22102,7 +22114,7 @@
       </c>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
+      <c r="H327" s="4"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
@@ -22154,7 +22166,7 @@
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
+      <c r="H328" s="4"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
@@ -22206,7 +22218,7 @@
       </c>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
+      <c r="H329" s="4"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
@@ -22258,7 +22270,7 @@
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
+      <c r="H330" s="4"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
@@ -22310,7 +22322,7 @@
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
+      <c r="H331" s="4"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
@@ -22362,7 +22374,7 @@
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
+      <c r="H332" s="4"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
@@ -22414,7 +22426,7 @@
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
+      <c r="H333" s="4"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
@@ -22466,7 +22478,7 @@
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
+      <c r="H334" s="4"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
@@ -22518,7 +22530,7 @@
       </c>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
+      <c r="H335" s="4"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
@@ -22570,7 +22582,7 @@
       </c>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
+      <c r="H336" s="4"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
@@ -22622,7 +22634,7 @@
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
+      <c r="H337" s="4"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
@@ -22674,7 +22686,7 @@
       </c>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
+      <c r="H338" s="4"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
@@ -22726,7 +22738,7 @@
       </c>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
+      <c r="H339" s="4"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
@@ -22778,7 +22790,7 @@
       </c>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
+      <c r="H340" s="4"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
@@ -22830,7 +22842,7 @@
       </c>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
+      <c r="H341" s="4"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
@@ -22882,7 +22894,7 @@
       </c>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
+      <c r="H342" s="4"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
@@ -22934,7 +22946,7 @@
       </c>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
+      <c r="H343" s="4"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
@@ -22986,7 +22998,7 @@
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
+      <c r="H344" s="4"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
@@ -23038,7 +23050,7 @@
       </c>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
+      <c r="H345" s="4"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
@@ -23090,7 +23102,7 @@
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
+      <c r="H346" s="4"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
@@ -23142,7 +23154,7 @@
       </c>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
+      <c r="H347" s="4"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
@@ -23194,7 +23206,7 @@
       </c>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
+      <c r="H348" s="4"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
@@ -23246,7 +23258,7 @@
       </c>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
+      <c r="H349" s="4"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
@@ -23298,7 +23310,7 @@
       </c>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
+      <c r="H350" s="4"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
@@ -23350,7 +23362,7 @@
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
+      <c r="H351" s="4"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
@@ -23402,7 +23414,7 @@
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
+      <c r="H352" s="4"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
@@ -23454,7 +23466,7 @@
       </c>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
+      <c r="H353" s="4"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
@@ -23506,7 +23518,7 @@
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
+      <c r="H354" s="4"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
@@ -23558,7 +23570,7 @@
       </c>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
+      <c r="H355" s="4"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
@@ -23610,7 +23622,7 @@
       </c>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
+      <c r="H356" s="4"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
@@ -23662,7 +23674,7 @@
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
+      <c r="H357" s="4"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
@@ -23714,7 +23726,7 @@
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
+      <c r="H358" s="4"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
@@ -23766,7 +23778,7 @@
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
+      <c r="H359" s="4"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
@@ -23818,7 +23830,7 @@
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
+      <c r="H360" s="4"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
@@ -23870,7 +23882,7 @@
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
+      <c r="H361" s="4"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
@@ -23922,7 +23934,7 @@
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
+      <c r="H362" s="4"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
@@ -23974,7 +23986,7 @@
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
+      <c r="H363" s="4"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
@@ -24026,7 +24038,7 @@
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
+      <c r="H364" s="4"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
@@ -24078,7 +24090,7 @@
       </c>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
+      <c r="H365" s="4"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
@@ -24130,7 +24142,7 @@
       </c>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
+      <c r="H366" s="4"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
@@ -24182,7 +24194,7 @@
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
+      <c r="H367" s="4"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
@@ -24234,7 +24246,7 @@
       </c>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
+      <c r="H368" s="4"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
@@ -24286,7 +24298,7 @@
       </c>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
+      <c r="H369" s="4"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
@@ -24338,7 +24350,7 @@
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
+      <c r="H370" s="4"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
@@ -24394,7 +24406,10 @@
       <c r="G371" s="10">
         <v>25.19</v>
       </c>
-      <c r="H371" s="3"/>
+      <c r="H371" s="4">
+        <f>LN(G371/F371)</f>
+        <v>-0.00830208366</v>
+      </c>
       <c r="I371" s="10">
         <v>58.0</v>
       </c>
@@ -24456,7 +24471,7 @@
       </c>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
+      <c r="H372" s="4"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
@@ -24508,7 +24523,7 @@
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
+      <c r="H373" s="4"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
@@ -24560,7 +24575,7 @@
       </c>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
+      <c r="H374" s="4"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
@@ -24616,7 +24631,10 @@
       <c r="G375" s="10">
         <v>31.78</v>
       </c>
-      <c r="H375" s="3"/>
+      <c r="H375" s="4">
+        <f>LN(G375/F375)</f>
+        <v>0.4128871714</v>
+      </c>
       <c r="I375" s="10">
         <v>89.0</v>
       </c>
@@ -24678,7 +24696,7 @@
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
+      <c r="H376" s="4"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
@@ -24730,7 +24748,7 @@
       </c>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
+      <c r="H377" s="4"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
@@ -24786,7 +24804,10 @@
       <c r="G378" s="10">
         <v>16.79</v>
       </c>
-      <c r="H378" s="3"/>
+      <c r="H378" s="4">
+        <f>LN(G378/F378)</f>
+        <v>0.5832703748</v>
+      </c>
       <c r="I378" s="10">
         <v>106.0</v>
       </c>
@@ -24848,7 +24869,7 @@
       </c>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
+      <c r="H379" s="4"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
@@ -24900,7 +24921,7 @@
       </c>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
+      <c r="H380" s="4"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
@@ -24956,7 +24977,10 @@
       <c r="G381" s="10">
         <v>8.51</v>
       </c>
-      <c r="H381" s="3"/>
+      <c r="H381" s="4">
+        <f t="shared" ref="H381:H382" si="13">LN(G381/F381)</f>
+        <v>-0.6777531525</v>
+      </c>
       <c r="I381" s="10">
         <v>104.0</v>
       </c>
@@ -25022,7 +25046,10 @@
       <c r="G382" s="10">
         <v>28.79</v>
       </c>
-      <c r="H382" s="3"/>
+      <c r="H382" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.262711547</v>
+      </c>
       <c r="I382" s="10">
         <v>102.0</v>
       </c>
@@ -25084,7 +25111,7 @@
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
+      <c r="H383" s="4"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
@@ -25136,7 +25163,7 @@
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
+      <c r="H384" s="4"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
@@ -25188,7 +25215,7 @@
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
+      <c r="H385" s="4"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
@@ -25240,7 +25267,7 @@
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
+      <c r="H386" s="4"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
@@ -25292,7 +25319,7 @@
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
+      <c r="H387" s="4"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
@@ -25344,7 +25371,7 @@
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
+      <c r="H388" s="4"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
@@ -25396,7 +25423,7 @@
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
+      <c r="H389" s="4"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
@@ -25448,7 +25475,7 @@
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
+      <c r="H390" s="4"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
@@ -25500,7 +25527,7 @@
       </c>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
+      <c r="H391" s="4"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
@@ -25552,7 +25579,7 @@
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
+      <c r="H392" s="4"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
@@ -25604,7 +25631,7 @@
       </c>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
+      <c r="H393" s="4"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
@@ -25656,7 +25683,7 @@
       </c>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
+      <c r="H394" s="4"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
@@ -25708,7 +25735,7 @@
       </c>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
+      <c r="H395" s="4"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
@@ -25764,7 +25791,10 @@
       <c r="G396" s="10">
         <v>12.71</v>
       </c>
-      <c r="H396" s="3"/>
+      <c r="H396" s="4">
+        <f>LN(G396/F396)</f>
+        <v>0.03360316162</v>
+      </c>
       <c r="I396" s="10">
         <v>103.0</v>
       </c>
@@ -25826,7 +25856,7 @@
       </c>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
+      <c r="H397" s="4"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
@@ -25878,7 +25908,7 @@
       </c>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
+      <c r="H398" s="4"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
       <c r="K398" s="3"/>
@@ -25930,7 +25960,7 @@
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
+      <c r="H399" s="4"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
@@ -25982,7 +26012,7 @@
       </c>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
+      <c r="H400" s="4"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
@@ -26034,7 +26064,7 @@
       </c>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
+      <c r="H401" s="4"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
@@ -26090,7 +26120,10 @@
       <c r="G402" s="10">
         <v>25.98</v>
       </c>
-      <c r="H402" s="3"/>
+      <c r="H402" s="4">
+        <f>LN(G402/F402)</f>
+        <v>-0.139862349</v>
+      </c>
       <c r="I402" s="10">
         <v>100.0</v>
       </c>
@@ -26152,7 +26185,7 @@
       </c>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
+      <c r="H403" s="4"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
@@ -26204,7 +26237,7 @@
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
-      <c r="H404" s="3"/>
+      <c r="H404" s="4"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
@@ -26256,7 +26289,7 @@
       </c>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
-      <c r="H405" s="3"/>
+      <c r="H405" s="4"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
@@ -26308,7 +26341,7 @@
       </c>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
-      <c r="H406" s="3"/>
+      <c r="H406" s="4"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
@@ -26360,7 +26393,7 @@
       </c>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
+      <c r="H407" s="4"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
@@ -26412,7 +26445,7 @@
       </c>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
+      <c r="H408" s="4"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
@@ -26464,7 +26497,7 @@
       </c>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
-      <c r="H409" s="3"/>
+      <c r="H409" s="4"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
@@ -26516,7 +26549,7 @@
       </c>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
-      <c r="H410" s="3"/>
+      <c r="H410" s="4"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
       <c r="K410" s="3"/>
@@ -26568,7 +26601,7 @@
       </c>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
+      <c r="H411" s="4"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
@@ -26620,7 +26653,7 @@
       </c>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
+      <c r="H412" s="4"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
@@ -26672,7 +26705,7 @@
       </c>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
+      <c r="H413" s="4"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
@@ -26724,7 +26757,7 @@
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
-      <c r="H414" s="3"/>
+      <c r="H414" s="4"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
@@ -26776,7 +26809,7 @@
       </c>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
+      <c r="H415" s="4"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
@@ -26828,7 +26861,7 @@
       </c>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
-      <c r="H416" s="3"/>
+      <c r="H416" s="4"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>

--- a/research/sex-chromosome-project/Data/Raw/Sex_chromosome_genome_size_data.xlsx
+++ b/research/sex-chromosome-project/Data/Raw/Sex_chromosome_genome_size_data.xlsx
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="792">
   <si>
     <t>Xirocostas, Z. A., Everingham, S. E., Moles, A. T. The Sex with the Reduced Sex Chromosome Dies Earlier: A Comparison Across the Tree of Life.</t>
   </si>
@@ -24978,7 +24978,7 @@
         <v>8.51</v>
       </c>
       <c r="H381" s="4">
-        <f t="shared" ref="H381:H382" si="13">LN(G381/F381)</f>
+        <f t="shared" ref="H381:H383" si="13">LN(G381/F381)</f>
         <v>-0.6777531525</v>
       </c>
       <c r="I381" s="10">
@@ -25109,15 +25109,32 @@
       <c r="E383" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F383" s="3"/>
-      <c r="G383" s="3"/>
-      <c r="H383" s="4"/>
-      <c r="I383" s="3"/>
-      <c r="J383" s="3"/>
-      <c r="K383" s="3"/>
-      <c r="L383" s="3"/>
+      <c r="F383" s="10">
+        <v>36.22</v>
+      </c>
+      <c r="G383" s="10">
+        <v>26.22</v>
+      </c>
+      <c r="H383" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.3230889741</v>
+      </c>
+      <c r="I383" s="10">
+        <v>81.0</v>
+      </c>
+      <c r="J383" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="K383" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="L383" s="10">
+        <v>0.75</v>
+      </c>
       <c r="M383" s="3"/>
-      <c r="N383" s="3"/>
+      <c r="N383" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="O383" s="3"/>
       <c r="P383" s="3"/>
       <c r="Q383" s="3"/>
